--- a/medicine/Bioéthique/Michel_Raoult/Michel_Raoult.xlsx
+++ b/medicine/Bioéthique/Michel_Raoult/Michel_Raoult.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Raoult, né le 10 août 1943 à Boulogne-Billancourt et mort le 27 mars 2002 à Nanterre[1], ingénieur à EADS, était un dirigeant du mouvement anti-avortement en France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Raoult, né le 10 août 1943 à Boulogne-Billancourt et mort le 27 mars 2002 à Nanterre, ingénieur à EADS, était un dirigeant du mouvement anti-avortement en France.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir longtemps milité dans les rangs de Laissez-les vivre, il avait fondé le 3 juillet 1982 l'Association pour l'objection de conscience à toute participation à l'avortement (AOCPA, devenue Choisir la Vie), en opposition au remboursement de l'IVG, qu'il a dirigée jusqu'à sa mort[2]. Il était un cofondateur de l'Union pour la vie. Dans le cadre professionnel, il était également militant au sein de la CFTC[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir longtemps milité dans les rangs de Laissez-les vivre, il avait fondé le 3 juillet 1982 l'Association pour l'objection de conscience à toute participation à l'avortement (AOCPA, devenue Choisir la Vie), en opposition au remboursement de l'IVG, qu'il a dirigée jusqu'à sa mort. Il était un cofondateur de l'Union pour la vie. Dans le cadre professionnel, il était également militant au sein de la CFTC.
 Proche de Christine Boutin, il a été élu en 2001 conseiller municipal de Nanterre dans le groupe Union pour Nanterre (droite). 
 Il fut assassiné le 27 mars 2002 par Richard Durn lors de la tuerie de Nanterre.
 </t>
